--- a/excel_data/시험결과집계_김수하.xlsx
+++ b/excel_data/시험결과집계_김수하.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:r>
       <x:rPr>
@@ -697,7 +697,7 @@
     <x:t>불합격</x:t>
   </x:si>
   <x:si>
-    <x:t>0</x:t>
+    <x:t>40</x:t>
   </x:si>
   <x:si>
     <x:t>김성준</x:t>
@@ -709,6 +709,9 @@
     <x:t>합격</x:t>
   </x:si>
   <x:si>
+    <x:t>영어</x:t>
+  </x:si>
+  <x:si>
     <x:t>50</x:t>
   </x:si>
   <x:si>
@@ -718,7 +721,10 @@
     <x:t>02-2024-01</x:t>
   </x:si>
   <x:si>
-    <x:t>영어</x:t>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53.3</x:t>
   </x:si>
   <x:si>
     <x:t>최지연</x:t>
@@ -731,75 +737,6 @@
   </x:si>
   <x:si>
     <x:t>03-2024-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이다정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박민지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박조은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이성준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고민아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김다정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이민지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김지연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오선경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-05</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -811,30 +748,83 @@
         <x:rFont val="맑은 고딕"/>
         <x:family val="3"/>
       </x:rPr>
+      <x:t>* 과목별 응시인원 대비 합격률을 표시합니다.</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>이다정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박민지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박조은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이성준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고민아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김다정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이민지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김지연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오선경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-05</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:b/>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="9"/>
+        <x:color rgb="FFFF0000"/>
+        <x:rFont val="맑은 고딕"/>
+        <x:family val="3"/>
+      </x:rPr>
       <x:t>* 개인별 시험 결과 합격여부를 표시합니다.</x:t>
     </x:r>
     <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>42.9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>58.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>57.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53.3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1753,118 +1743,97 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H4" s="3" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
     </x:row>
     <x:row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
     </x:row>
     <x:row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
     </x:row>
     <x:row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
         <x:v>51</x:v>
@@ -1872,59 +1841,41 @@
       <x:c r="D10" s="3" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
     </x:row>
     <x:row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B11" s="3" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
     </x:row>
     <x:row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
     </x:row>
     <x:row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
         <x:v>51</x:v>
@@ -1932,71 +1883,47 @@
       <x:c r="D13" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
     </x:row>
     <x:row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
     </x:row>
     <x:row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
     </x:row>
     <x:row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
         <x:v>52</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2007,259 +1934,15 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
         <x:v>56</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:11">
-      <x:c r="G18" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A19" s="5" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:11">
-      <x:c r="G20" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:11">
-      <x:c r="G21" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:11">
-      <x:c r="G22" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:11">
-      <x:c r="G23" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:11">
-      <x:c r="G24" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:11">
-      <x:c r="G25" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:11">
-      <x:c r="G26" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:11">
-      <x:c r="G27" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:11">
-      <x:c r="G28" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:11">
-      <x:c r="G29" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:11">
-      <x:c r="G30" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:11">
-      <x:c r="G31" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:11">
-      <x:c r="G32" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:11">
-      <x:c r="G33" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:11">
-      <x:c r="G34" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:11">
-      <x:c r="G35" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:11">
-      <x:c r="G36" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:11">
-      <x:c r="G37" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:11">
-      <x:c r="G38" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:11">
-      <x:c r="G39" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:11">
-      <x:c r="G40" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:11">
-      <x:c r="G41" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:11">
-      <x:c r="G42" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:11">
-      <x:c r="G43" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:11">
-      <x:c r="G44" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:11">
-      <x:c r="G45" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:11">
-      <x:c r="G46" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:11">
-      <x:c r="G47" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/excel_data/시험결과집계_김수하.xlsx
+++ b/excel_data/시험결과집계_김수하.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <x:si>
     <x:r>
       <x:rPr>
@@ -697,46 +697,109 @@
     <x:t>불합격</x:t>
   </x:si>
   <x:si>
+    <x:t>0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김성준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고민규</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최지연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서병무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이다정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박민지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>박조은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이성준</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고민아</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>서민정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김다정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이민지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>03-2024-05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김지연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01-2024-05</x:t>
+  </x:si>
+  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
-    <x:t>김성준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고민규</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수학</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최지연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서병무</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-01</x:t>
+    <x:t>오선경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>02-2024-05</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -748,83 +811,30 @@
         <x:rFont val="맑은 고딕"/>
         <x:family val="3"/>
       </x:rPr>
-      <x:t>* 과목별 응시인원 대비 합격률을 표시합니다.</x:t>
-    </x:r>
-    <x:phoneticPr fontId="0" type="noConversion"/>
-  </x:si>
-  <x:si>
-    <x:t>이다정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박민지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>박조은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이성준</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-03</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고민아</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서민정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김다정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이민지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>03-2024-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김지연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01-2024-05</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오선경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02-2024-05</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:b/>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="9"/>
-        <x:color rgb="FFFF0000"/>
-        <x:rFont val="맑은 고딕"/>
-        <x:family val="3"/>
-      </x:rPr>
       <x:t>* 개인별 시험 결과 합격여부를 표시합니다.</x:t>
     </x:r>
     <x:phoneticPr fontId="0" type="noConversion"/>
+  </x:si>
+  <x:si>
+    <x:t>42.9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53.3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1743,97 +1753,118 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H4" s="3" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="H4" s="3" t="s">
-        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="C5" s="2" t="s">
-        <x:v>57</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G5" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H5" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="G7" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B10" s="3" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
         <x:v>51</x:v>
@@ -1841,41 +1872,59 @@
       <x:c r="D10" s="3" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B11" s="3" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="B11" s="3" t="s">
-        <x:v>75</x:v>
-      </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="B12" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
         <x:v>51</x:v>
@@ -1883,47 +1932,71 @@
       <x:c r="D13" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
         <x:v>52</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1934,15 +2007,259 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
         <x:v>56</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="G18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A19" s="5" t="s">
         <x:v>88</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="G20" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="G21" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="G22" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="G23" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="G24" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="G25" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="G26" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="G27" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="G28" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="G29" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="G30" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="G31" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="G32" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="G33" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:11">
+      <x:c r="G34" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:11">
+      <x:c r="G35" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:11">
+      <x:c r="G36" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:11">
+      <x:c r="G37" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:11">
+      <x:c r="G38" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:11">
+      <x:c r="G39" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="G40" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="G41" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="G42" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="G43" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="G44" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="G45" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="G46" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="G47" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
